--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>season</t>
   </si>
@@ -34,16 +34,7 @@
     <t>first</t>
   </si>
   <si>
-    <t>pts_won</t>
-  </si>
-  <si>
-    <t>pts_max</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>winner</t>
+    <t>pts_per_game</t>
   </si>
   <si>
     <t>nba mvp</t>
@@ -86,9 +77,6 @@
   </si>
   <si>
     <t>OKC</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
 </sst>
 </file>
@@ -446,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,334 +462,235 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1960</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>49</v>
       </c>
       <c r="G2">
-        <v>270</v>
-      </c>
-      <c r="H2">
-        <v>395</v>
-      </c>
-      <c r="I2">
-        <v>0.6840000000000001</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>47</v>
       </c>
       <c r="G3">
-        <v>665</v>
-      </c>
-      <c r="H3">
-        <v>800</v>
-      </c>
-      <c r="I3">
-        <v>0.831</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1972</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>81</v>
       </c>
       <c r="G4">
-        <v>581</v>
-      </c>
-      <c r="H4">
-        <v>900</v>
-      </c>
-      <c r="I4">
-        <v>0.646</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1975</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>81</v>
       </c>
       <c r="G5">
-        <v>547</v>
-      </c>
-      <c r="H5">
-        <v>965</v>
-      </c>
-      <c r="I5">
-        <v>0.5669999999999999</v>
-      </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1966</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>48</v>
       </c>
       <c r="G6">
-        <v>181</v>
-      </c>
-      <c r="H6">
-        <v>445</v>
-      </c>
-      <c r="I6">
-        <v>0.407</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>73</v>
       </c>
       <c r="G7">
-        <v>915</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7">
-        <v>0.915</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>119</v>
       </c>
       <c r="G8">
-        <v>1232</v>
-      </c>
-      <c r="H8">
-        <v>1250</v>
-      </c>
-      <c r="I8">
-        <v>0.986</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1971</v>
       </c>
       <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>133</v>
       </c>
       <c r="G9">
-        <v>698</v>
-      </c>
-      <c r="H9">
-        <v>780</v>
-      </c>
-      <c r="I9">
-        <v>0.895</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>69</v>
       </c>
       <c r="G10">
-        <v>888</v>
-      </c>
-      <c r="H10">
-        <v>1010</v>
-      </c>
-      <c r="I10">
-        <v>0.879</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>77</v>
       </c>
       <c r="G11">
-        <v>891</v>
-      </c>
-      <c r="H11">
-        <v>960</v>
-      </c>
-      <c r="I11">
-        <v>0.928</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>season</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>team</t>
-  </si>
-  <si>
-    <t>first</t>
   </si>
   <si>
     <t>pts_per_game</t>
@@ -434,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,237 +456,204 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1960</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>49</v>
-      </c>
-      <c r="G2">
         <v>37.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1988</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>47</v>
-      </c>
-      <c r="G3">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1972</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>81</v>
-      </c>
-      <c r="G4">
         <v>34.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1975</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>81</v>
-      </c>
-      <c r="G5">
         <v>34.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1966</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>48</v>
-      </c>
-      <c r="G6">
         <v>33.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>73</v>
-      </c>
-      <c r="G7">
         <v>33.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>119</v>
-      </c>
-      <c r="G8">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>1971</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9">
-        <v>133</v>
-      </c>
-      <c r="G9">
         <v>31.7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>69</v>
-      </c>
-      <c r="G10">
         <v>31.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1991</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>77</v>
-      </c>
-      <c r="G11">
         <v>31.5</v>
       </c>
     </row>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>season</t>
   </si>
@@ -32,6 +32,36 @@
   </si>
   <si>
     <t>pts_per_game</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>1991</t>
   </si>
   <si>
     <t>nba mvp</t>
@@ -458,200 +488,200 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1960</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>37.6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1988</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1972</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>34.8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1975</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>34.5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1966</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>33.5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2023</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>33.1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2014</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>1971</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>31.7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>2017</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>31.6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>1991</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>31.5</v>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
-  <si>
-    <t>season</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>award</t>
@@ -31,7 +31,13 @@
     <t>team</t>
   </si>
   <si>
+    <t>pf_per_game</t>
+  </si>
+  <si>
     <t>pts_per_game</t>
+  </si>
+  <si>
+    <t>season_y</t>
   </si>
   <si>
     <t>1960</t>
@@ -461,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,205 +492,271 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2">
+        <v>2.1</v>
+      </c>
+      <c r="G2">
         <v>37.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
+        <v>3.3</v>
+      </c>
+      <c r="G3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4">
+        <v>2.9</v>
+      </c>
+      <c r="G4">
         <v>34.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5">
+        <v>3.4</v>
+      </c>
+      <c r="G5">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6">
+        <v>2.2</v>
+      </c>
+      <c r="G6">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7">
+        <v>3.1</v>
+      </c>
+      <c r="G7">
         <v>33.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8">
+        <v>2.1</v>
+      </c>
+      <c r="G8">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9">
+        <v>3.2</v>
+      </c>
+      <c r="G9">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10">
+        <v>2.3</v>
+      </c>
+      <c r="G10">
         <v>31.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11">
+        <v>2.8</v>
+      </c>
+      <c r="G11">
         <v>31.5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>year</t>
   </si>
@@ -110,6 +110,36 @@
   </si>
   <si>
     <t>OKC</t>
+  </si>
+  <si>
+    <t>1959-60</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1971-72</t>
+  </si>
+  <si>
+    <t>1974-75</t>
+  </si>
+  <si>
+    <t>1965-66</t>
+  </si>
+  <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>1970-71</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>1990-91</t>
   </si>
 </sst>
 </file>
@@ -522,7 +552,7 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +578,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -574,7 +604,7 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +630,7 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +656,7 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +682,7 @@
         <v>33.1</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +734,7 @@
         <v>31.7</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +760,7 @@
         <v>31.6</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -756,7 +786,7 @@
         <v>31.5</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>year</t>
   </si>
@@ -40,6 +40,9 @@
     <t>season_y</t>
   </si>
   <si>
+    <t>double_double_avg</t>
+  </si>
+  <si>
     <t>1960</t>
   </si>
   <si>
@@ -140,6 +143,12 @@
   </si>
   <si>
     <t>1990-91</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -497,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,22 +537,25 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>2.1</v>
@@ -552,24 +564,27 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>3.3</v>
@@ -578,24 +593,27 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>2.9</v>
@@ -604,24 +622,27 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>3.4</v>
@@ -630,24 +651,27 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>2.2</v>
@@ -656,24 +680,27 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7">
         <v>3.1</v>
@@ -682,24 +709,27 @@
         <v>33.1</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>2.1</v>
@@ -708,24 +738,27 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>3.2</v>
@@ -734,24 +767,27 @@
         <v>31.7</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>2.3</v>
@@ -760,24 +796,27 @@
         <v>31.6</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>2.8</v>
@@ -786,7 +825,10 @@
         <v>31.5</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -145,10 +145,10 @@
     <t>1990-91</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -741,7 +741,7 @@
         <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -799,7 +799,7 @@
         <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -828,7 +828,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>double_double_avg</t>
+  </si>
+  <si>
+    <t>triple_double_avg</t>
   </si>
   <si>
     <t>1960</t>
@@ -506,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,22 +543,25 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>2.1</v>
@@ -564,27 +570,30 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>3.3</v>
@@ -593,27 +602,30 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2.9</v>
@@ -622,27 +634,30 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>3.4</v>
@@ -651,27 +666,30 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>2.2</v>
@@ -680,27 +698,30 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>3.1</v>
@@ -709,27 +730,30 @@
         <v>33.1</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>2.1</v>
@@ -738,27 +762,30 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>3.2</v>
@@ -767,27 +794,30 @@
         <v>31.7</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
         <v>2.3</v>
@@ -796,27 +826,30 @@
         <v>31.6</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>2.8</v>
@@ -825,10 +858,13 @@
         <v>31.5</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
-  <si>
-    <t>year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+  <si>
+    <t>season_ending_year</t>
   </si>
   <si>
     <t>award</t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>1960</t>
@@ -509,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,22 +549,25 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>2.1</v>
@@ -570,30 +576,33 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K2">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>3.3</v>
@@ -602,30 +611,33 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K3">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>2.9</v>
@@ -634,30 +646,33 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>3.4</v>
@@ -666,30 +681,33 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>2.2</v>
@@ -698,30 +716,33 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7">
         <v>3.1</v>
@@ -730,30 +751,33 @@
         <v>33.1</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>2.1</v>
@@ -762,30 +786,33 @@
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9">
         <v>3.2</v>
@@ -794,30 +821,33 @@
         <v>31.7</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>46</v>
+      </c>
+      <c r="K9">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>2.3</v>
@@ -826,30 +856,33 @@
         <v>31.6</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>2.8</v>
@@ -858,13 +891,16 @@
         <v>31.5</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>1991</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>season_ending_year</t>
   </si>
@@ -64,9 +64,6 @@
     <t>1966</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
     <t>1991</t>
   </si>
   <si>
+    <t>1964</t>
+  </si>
+  <si>
     <t>nba mvp</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>Bob McAdoo</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
+    <t>Oscar Robertson</t>
+  </si>
+  <si>
     <t>PHW</t>
   </si>
   <si>
@@ -121,6 +121,9 @@
     <t>OKC</t>
   </si>
   <si>
+    <t>CIN</t>
+  </si>
+  <si>
     <t>1959-60</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>1965-66</t>
   </si>
   <si>
-    <t>2022-23</t>
-  </si>
-  <si>
     <t>2013-14</t>
   </si>
   <si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>1990-91</t>
+  </si>
+  <si>
+    <t>1963-64</t>
   </si>
   <si>
     <t>Yes</t>
@@ -576,13 +579,13 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1960</v>
@@ -611,13 +614,13 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1988</v>
@@ -646,13 +649,13 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1972</v>
@@ -681,13 +684,13 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>1975</v>
@@ -716,13 +719,13 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1966</v>
@@ -739,28 +742,28 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="G7">
-        <v>33.1</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2023</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -771,31 +774,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2014</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -806,31 +809,31 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="G9">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>1971</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -841,31 +844,31 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="G10">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>2017</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -876,31 +879,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1991</v>
+        <v>1964</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>season_ending_year</t>
   </si>
@@ -64,6 +64,9 @@
     <t>1966</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>1991</t>
   </si>
   <si>
-    <t>1964</t>
-  </si>
-  <si>
     <t>nba mvp</t>
   </si>
   <si>
@@ -94,15 +94,15 @@
     <t>Bob McAdoo</t>
   </si>
   <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Oscar Robertson</t>
-  </si>
-  <si>
     <t>PHW</t>
   </si>
   <si>
@@ -121,9 +121,6 @@
     <t>OKC</t>
   </si>
   <si>
-    <t>CIN</t>
-  </si>
-  <si>
     <t>1959-60</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
     <t>1965-66</t>
   </si>
   <si>
+    <t>2022-23</t>
+  </si>
+  <si>
     <t>2013-14</t>
   </si>
   <si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>1990-91</t>
-  </si>
-  <si>
-    <t>1963-64</t>
   </si>
   <si>
     <t>Yes</t>
@@ -579,13 +576,13 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>1960</v>
@@ -614,13 +611,13 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1988</v>
@@ -649,13 +646,13 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>1972</v>
@@ -684,13 +681,13 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>1975</v>
@@ -719,13 +716,13 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>1966</v>
@@ -742,28 +739,28 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>33.1</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2014</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -774,31 +771,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="G8">
-        <v>31.7</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1971</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -809,31 +806,31 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="G9">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2017</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -844,31 +841,31 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="G10">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>1991</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -879,31 +876,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="G11">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
         <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1964</v>
+        <v>1991</v>
       </c>
     </row>
   </sheetData>

--- a/top_10_nba_mvp_ppg_df.xlsx
+++ b/top_10_nba_mvp_ppg_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>season_ending_year</t>
   </si>
@@ -64,21 +64,21 @@
     <t>1966</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
     <t>1971</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>1991</t>
   </si>
   <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>nba mvp</t>
   </si>
   <si>
@@ -94,13 +94,13 @@
     <t>Bob McAdoo</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Russell Westbrook</t>
+    <t>Oscar Robertson</t>
+  </si>
+  <si>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>PHW</t>
@@ -121,6 +121,9 @@
     <t>OKC</t>
   </si>
   <si>
+    <t>CIN</t>
+  </si>
+  <si>
     <t>1959-60</t>
   </si>
   <si>
@@ -136,19 +139,19 @@
     <t>1965-66</t>
   </si>
   <si>
-    <t>2022-23</t>
-  </si>
-  <si>
     <t>2013-14</t>
   </si>
   <si>
     <t>1970-71</t>
   </si>
   <si>
-    <t>2016-17</t>
-  </si>
-  <si>
     <t>1990-91</t>
+  </si>
+  <si>
+    <t>1963-64</t>
+  </si>
+  <si>
+    <t>2000-01</t>
   </si>
   <si>
     <t>Yes</t>
@@ -576,13 +579,13 @@
         <v>37.6</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1960</v>
@@ -611,13 +614,13 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1988</v>
@@ -646,13 +649,13 @@
         <v>34.8</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1972</v>
@@ -681,13 +684,13 @@
         <v>34.5</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>1975</v>
@@ -716,13 +719,13 @@
         <v>33.5</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1966</v>
@@ -739,28 +742,28 @@
         <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="G7">
-        <v>33.1</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2023</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -771,31 +774,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="G8">
-        <v>32</v>
+        <v>31.7</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>2014</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -806,31 +809,31 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="G9">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>1971</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -841,31 +844,31 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="G10">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>2017</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -876,31 +879,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="G11">
-        <v>31.5</v>
+        <v>31.1</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1991</v>
+        <v>2001</v>
       </c>
     </row>
   </sheetData>
